--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 7 (35, 22, 50, 45, 28)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(35, 22, 50, 45, 28)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999243171959048</v>
+        <v>0.9990943661158863</v>
       </c>
       <c r="E2">
-        <v>0.9999243171959048</v>
+        <v>0.9990943661158863</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1398536575630142</v>
+        <v>0.01904853835483634</v>
       </c>
       <c r="E3">
-        <v>0.1398536575630142</v>
+        <v>0.01904853835483634</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.9847675631171476</v>
+        <v>8.642147004695193E-06</v>
       </c>
       <c r="E4">
-        <v>0.9847675631171476</v>
+        <v>8.642147004695193E-06</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>9.456567199337854E-17</v>
+        <v>3.333634417049986E-10</v>
       </c>
       <c r="E5">
-        <v>9.456567199337854E-17</v>
+        <v>3.333634417049986E-10</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8.025443198726921E-10</v>
+        <v>5.383408987573162E-13</v>
       </c>
       <c r="E6">
-        <v>8.025443198726921E-10</v>
+        <v>5.383408987573162E-13</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.723014593170159E-08</v>
+        <v>6.030909187427842E-11</v>
       </c>
       <c r="E7">
-        <v>0.9999999727698541</v>
+        <v>0.9999999999396909</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9999857459753976</v>
+        <v>0.9999814204325361</v>
       </c>
       <c r="E8">
-        <v>1.425402460242253E-05</v>
+        <v>1.857956746387224E-05</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999981350299163</v>
+        <v>0.9999884657185047</v>
       </c>
       <c r="E9">
-        <v>1.864970083698125E-06</v>
+        <v>1.153428149525126E-05</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.951418181682172E-23</v>
+        <v>8.783295142770593E-23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.005429600796508179</v>
+        <v>1.38607593141852E-05</v>
       </c>
       <c r="E11">
-        <v>0.9945703992034918</v>
+        <v>0.9999861392406858</v>
       </c>
       <c r="F11">
-        <v>8.804415702819824</v>
+        <v>9.253073692321777</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
